--- a/Data/Processed/Angiosperms/missing_powo_ipni/Polygonaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Polygonaceae.xlsx
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -22608,7 +22608,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -23136,7 +23136,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anais Bot. Herb. Barbosa Rodrigues 4: 31, tab. 9. 1952 </t>
+          <t>Anais Bot. Herb. Barbosa Rodrigues 4: 31, tab. 9. 1952</t>
         </is>
       </c>
       <c r="J406" t="b">
@@ -23214,7 +23214,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -23292,7 +23292,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 16: 7. 1919 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 16: 7. 1919</t>
         </is>
       </c>
       <c r="J408" t="b">
@@ -23370,7 +23370,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Nov. Mineir. 7. 1898 </t>
+          <t>Pl. Nov. Mineir. 7. 1898</t>
         </is>
       </c>
       <c r="J409" t="b">
@@ -23448,7 +23448,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 13(2): 163. 1890 [28 Oct 1890] </t>
+          <t>Bot. Jahrb. Syst. 13(2): 163. 1890 [28 Oct 1890]</t>
         </is>
       </c>
       <c r="J410" t="b">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 571. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 571. 1911</t>
         </is>
       </c>
       <c r="J411" t="b">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -23614,7 +23614,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 572. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 572. 1911</t>
         </is>
       </c>
       <c r="J412" t="b">
@@ -23682,7 +23682,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -23692,7 +23692,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 17(5): 517. 1893 [7 Nov 1893] </t>
+          <t>Bot. Jahrb. Syst. 17(5): 517. 1893 [7 Nov 1893]</t>
         </is>
       </c>
       <c r="J413" t="b">
@@ -23760,7 +23760,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -23770,7 +23770,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 241. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 241. 1908</t>
         </is>
       </c>
       <c r="J414" t="b">
@@ -23838,7 +23838,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 26A(3): 24. 1934 </t>
+          <t>Ark. Bot. 26A(3): 24. 1934</t>
         </is>
       </c>
       <c r="J415" t="b">
